--- a/TrackVoltageCar_Parts.xlsx
+++ b/TrackVoltageCar_Parts.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t xml:space="preserve">Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithium Ion Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7 Volt</t>
   </si>
 </sst>
 </file>
@@ -315,10 +321,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="181" zoomScaleNormal="181" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -467,13 +473,27 @@
         <v>22</v>
       </c>
     </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>